--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table39.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E3246-A562-8746-8B82-04BE7F0BFA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C12C70-C837-8E40-99B9-B91D0AC4D715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="7500" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20380" yWindow="6340" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>SAN DIEGO AREA TOTALS</t>
   </si>
   <si>
-    <t>Spiny lolxster</t>
-  </si>
-  <si>
     <t>California halibut</t>
   </si>
   <si>
@@ -61,18 +58,12 @@
     <t xml:space="preserve">Albacore </t>
   </si>
   <si>
-    <t>IHuefin tuna</t>
-  </si>
-  <si>
     <t>Shark</t>
   </si>
   <si>
     <t>Totals</t>
   </si>
   <si>
-    <t>( alifornia barracuda</t>
-  </si>
-  <si>
     <t xml:space="preserve">All other </t>
   </si>
   <si>
@@ -85,24 +76,12 @@
     <t xml:space="preserve">White sea bass  </t>
   </si>
   <si>
-    <t>Abalniir</t>
-  </si>
-  <si>
     <t>All other</t>
   </si>
   <si>
     <t xml:space="preserve">Spiny lobster   </t>
   </si>
   <si>
-    <t>ItiMkfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vcllnwfin tuna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ron i to </t>
-  </si>
-  <si>
     <t xml:space="preserve">California barracuda </t>
   </si>
   <si>
@@ -119,6 +98,27 @@
   </si>
   <si>
     <t>Yellowtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellowfin tuna </t>
+  </si>
+  <si>
+    <t>Bluefin tuna</t>
+  </si>
+  <si>
+    <t>Spiny lobster</t>
+  </si>
+  <si>
+    <t>Abalone</t>
+  </si>
+  <si>
+    <t>Bonito</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
+  </si>
+  <si>
+    <t>California barracuda</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -499,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>8511144</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>7417264</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>2080254</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>505120</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>254377</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>123771</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>74203</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>40419</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>30778</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>28551</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>28329</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>22402</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>17065</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>14201</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>5699</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>21303</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>19174880</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5">
         <f>SUM(C4:C19)-C20</f>
@@ -775,10 +775,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
         <v>7611</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <v>5727</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <v>13338</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C25" s="5">
         <f>SUM(C22:C23)-C24</f>
@@ -830,10 +830,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
         <v>11102</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>19</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
         <v>11121</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C29" s="5">
         <f>SUM(C26:C27)-C28</f>
@@ -885,10 +885,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
         <v>5536</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>3821</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
         <v>9357</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C33" s="5">
         <f>SUM(C30:C31)-C32</f>
@@ -940,10 +940,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <v>8435</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
         <v>8435</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table39.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C12C70-C837-8E40-99B9-B91D0AC4D715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F451C9C7-63F0-F040-91EC-99CF350CF061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="6340" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Value</t>
   </si>
@@ -486,13 +486,12 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -512,8 +511,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>19217131</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table39.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F451C9C7-63F0-F040-91EC-99CF350CF061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C3A8C-1AEF-E240-8337-4EC594E23DB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="6340" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -951,7 +951,7 @@
         <v>8435</v>
       </c>
       <c r="D34" s="2">
-        <v>13596</v>
+        <v>43596</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
